--- a/MMG-PIAPS/bin/Debug/Membership.xlsx
+++ b/MMG-PIAPS/bin/Debug/Membership.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="275">
   <si>
     <t>Cash Receipt</t>
   </si>
@@ -70,9 +70,6 @@
     <t>ABERIN, ELENITA ONGJOCO</t>
   </si>
   <si>
-    <t>ALAMBRA, CHARITO MADRONIO (STAFF)</t>
-  </si>
-  <si>
     <t>ALCANTARA, MARIVIC ORTIZ</t>
   </si>
   <si>
@@ -82,30 +79,18 @@
     <t>AMISOLA, MARILYN LACSA</t>
   </si>
   <si>
-    <t>ANDAL, CRISELIE MABUNGA (STAFF)</t>
-  </si>
-  <si>
-    <t>ANDES, BERNARD LORILLA (STAFF) (NEW)</t>
-  </si>
-  <si>
     <t>ANG, JOEL GO</t>
   </si>
   <si>
     <t>ANTE, ANGELO BONGON</t>
   </si>
   <si>
-    <t>ARANAS, ALIZA CORTEZA (STAFF)</t>
-  </si>
-  <si>
     <t>ARAO, JUDITH BALEAN</t>
   </si>
   <si>
     <t>ARGARIN, MA. ISABEL CANO</t>
   </si>
   <si>
-    <t>ARONCE, NUMER (Staff) (New)</t>
-  </si>
-  <si>
     <t>ASIDO, LINA DELOS REYES</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>BALEAN, PURITA LOPEZ</t>
   </si>
   <si>
-    <t>BARALLAS, RIA FLORA SANCHEZ (STAFF)</t>
-  </si>
-  <si>
     <t>BARCENA, RAQUEL CALITISIN</t>
   </si>
   <si>
@@ -142,33 +124,18 @@
     <t>BARRAMEDA, RIZALINA SERRANO</t>
   </si>
   <si>
-    <t>BARRIOS, DHUANE BIEN (STAFF)</t>
-  </si>
-  <si>
-    <t>BASALLOTE, MA. LEA VANESSA MALLARI (NEW)(STAFF)</t>
-  </si>
-  <si>
     <t>BAUSA, ANTONIA ALICE CARDANO</t>
   </si>
   <si>
     <t>BAUSA, DANTE BOBIS</t>
   </si>
   <si>
-    <t>BAUTISTA, PRECIOSA BRUL (STAFF) (Resigned)</t>
-  </si>
-  <si>
     <t>BAYLON, MYRNA LINA</t>
   </si>
   <si>
-    <t>BEGUIRAS, MA. CHRISTINA BARDE (STAFF)</t>
-  </si>
-  <si>
     <t>BELARMA, MA. THERESA CRISTOBAL</t>
   </si>
   <si>
-    <t>BELEN, MICHELLE BRAGA (STAFF) (resigned)</t>
-  </si>
-  <si>
     <t>BELGICA, MARGIE BEGUIRAS</t>
   </si>
   <si>
@@ -178,18 +145,12 @@
     <t>BELO, SHARON CELENDRON</t>
   </si>
   <si>
-    <t>BENEVENTE, FRANCO BRONCANO (STAFF)</t>
-  </si>
-  <si>
     <t>BERGONIO, GREG ANICETO TORRECAMPO</t>
   </si>
   <si>
     <t>BERGONIO, JOSEPHINE LEONILA B.</t>
   </si>
   <si>
-    <t>BERGONIO, JULITA TORRECAMPO (deceased)</t>
-  </si>
-  <si>
     <t>BERIN, EMMA RUTH PELIÑO</t>
   </si>
   <si>
@@ -208,39 +169,18 @@
     <t>BINAMIRA, LEAH COMETA</t>
   </si>
   <si>
-    <t>BONAGUA, BERNARDO BERTILLO (STAFF)</t>
-  </si>
-  <si>
-    <t>BORAL, ROSARIO EMILIA BONGON (STAFF)</t>
-  </si>
-  <si>
     <t>BORBE, ANACLETA A.</t>
   </si>
   <si>
-    <t>BRAGA, ELVA CAS (Withdraw)</t>
-  </si>
-  <si>
     <t>BRAGA, ORLANDO BARJA</t>
   </si>
   <si>
-    <t>BROTAMANTE, MARY ANN BERAQUIT (STAFF) (NEW)</t>
-  </si>
-  <si>
-    <t>BROTAMONTE, TED ROTAECHE (STAFF)</t>
-  </si>
-  <si>
     <t>BUAGNIN, CONCHITA YANGO</t>
   </si>
   <si>
     <t>BUBAN, LYLIA BINIZA</t>
   </si>
   <si>
-    <t>BUEBO, MAYLAINE BARCOMA (STAFF)</t>
-  </si>
-  <si>
-    <t>BUELLA, JOHN PAUL RACTIS (STAFF)</t>
-  </si>
-  <si>
     <t>BUENAOBRA, ELSA</t>
   </si>
   <si>
@@ -253,21 +193,12 @@
     <t>BUITIZON, RODEL ROMANDO</t>
   </si>
   <si>
-    <t>BUMALAY, MARY ANNE BURCE (STAFF)</t>
-  </si>
-  <si>
-    <t>CABILES, NOEL PEÑARUBIA (STAFF)</t>
-  </si>
-  <si>
     <t>CABRERA, ELMA Q.</t>
   </si>
   <si>
     <t>CALLEJA, MA. ELENA QUINTO</t>
   </si>
   <si>
-    <t>CAÑON, MARY ANN  BRON (STAFF)</t>
-  </si>
-  <si>
     <t>CANTES, ROSA MARIA C.</t>
   </si>
   <si>
@@ -277,36 +208,15 @@
     <t>CAPELLAN, LORETO CLUTARIO</t>
   </si>
   <si>
-    <t>CAQUILALA, DANREB (WITHDRAWN)</t>
-  </si>
-  <si>
-    <t>CARANDANG, MARIA ESTELA (WITHDRAWN)</t>
-  </si>
-  <si>
     <t>CARDINAL, MARIO CAUDILLA</t>
   </si>
   <si>
-    <t>CARRETERO, MARIA ANGELA NUÑEZ (STAFF)</t>
-  </si>
-  <si>
-    <t>CASI, ELENA NAVARRO (STAFF)</t>
-  </si>
-  <si>
-    <t>CASTILLO, LOLITA (WITHDRAWN)</t>
-  </si>
-  <si>
     <t>CERDIÑO, JUAN AMIEL M.</t>
   </si>
   <si>
     <t>CHAN, JOSEPH SANTIAGO</t>
   </si>
   <si>
-    <t>CHAVEZ, JOSEPH (WITHDRAWN)</t>
-  </si>
-  <si>
-    <t>CHAVEZ, LUZVIMINDA (WITHDRAWN)</t>
-  </si>
-  <si>
     <t>CHUA, CESAR ONG</t>
   </si>
   <si>
@@ -319,27 +229,9 @@
     <t>CHUA, MERCY ZANTUA</t>
   </si>
   <si>
-    <t>CID, JASON CARGULLO (STAFF)</t>
-  </si>
-  <si>
-    <t>CID, VICENTE BOÑON (STAFF)</t>
-  </si>
-  <si>
-    <t>CLAVERIA, MARILOU ICARANOM (STAFF)</t>
-  </si>
-  <si>
     <t>CLERIGO, JETER MENDOZA</t>
   </si>
   <si>
-    <t>COLAR, LILIA VICTORIA (STAFF)</t>
-  </si>
-  <si>
-    <t>COLUMNA, MARITES BERMUNDO (STAFF) (New)</t>
-  </si>
-  <si>
-    <t>COMBO, FREDDIE (New)</t>
-  </si>
-  <si>
     <t>COMPUESTO, MARILOU BONGANAY</t>
   </si>
   <si>
@@ -361,9 +253,6 @@
     <t>DE LOS REYES, TIRZO JR. BALATAN</t>
   </si>
   <si>
-    <t>DEL ROSARIO, ANNA LIZA CATALINA (Withdraw)</t>
-  </si>
-  <si>
     <t>DEL ROSARIO, EDGARDO FELIPE ILLESCAS</t>
   </si>
   <si>
@@ -376,24 +265,12 @@
     <t>DEL ROSARIO, ROMULO SIMEON ALCANTARA</t>
   </si>
   <si>
-    <t>DON, DENNIS (Staff) New)</t>
-  </si>
-  <si>
-    <t>DY, ESTER JEAN ROSAROS(NEW)</t>
-  </si>
-  <si>
     <t>DYANGKO, MERLEEN</t>
   </si>
   <si>
     <t>ENCISO, JOSE CARMELO LUNA</t>
   </si>
   <si>
-    <t>ESCALANTE, MA. LUNINGNING SARMIENTA (STAFF)</t>
-  </si>
-  <si>
-    <t>ESCOTO, ARLEN BONAOBRA(STAFF)</t>
-  </si>
-  <si>
     <t>ESPADILLA, MA. THERESA JUAREZ</t>
   </si>
   <si>
@@ -403,9 +280,6 @@
     <t>ESPIRITU, JOSEPH REYLITO SHEA</t>
   </si>
   <si>
-    <t>ESPIRITU, MA. LOURDES MEDINA (Withdraw)</t>
-  </si>
-  <si>
     <t>ESTEVEZ, JOSE RICO III JAUCIAN</t>
   </si>
   <si>
@@ -466,15 +340,9 @@
     <t>ISIP, RICARDO JR. DAYANDANTE</t>
   </si>
   <si>
-    <t>JARCIA, MICHAEL MARTIN BUELLA (Staff) (New)</t>
-  </si>
-  <si>
     <t>LAO, GRACE BIRON</t>
   </si>
   <si>
-    <t>LATADE, KATHERINE MIRASOL (New)</t>
-  </si>
-  <si>
     <t>LIANKO, FLORO</t>
   </si>
   <si>
@@ -505,12 +373,6 @@
     <t>MAGDARAOG, VILMA</t>
   </si>
   <si>
-    <t>MANZANERO, CARYL COLLENE TINO (NEW) (STAFF)</t>
-  </si>
-  <si>
-    <t>MARINO, MELANIE Y. (NEW)</t>
-  </si>
-  <si>
     <t>MARZAN, LALYN IRENE DELOS REYES</t>
   </si>
   <si>
@@ -553,9 +415,6 @@
     <t>MUÑOZ, MARIPIE G.</t>
   </si>
   <si>
-    <t>NARVAEZ, SWISS M.D. (New)</t>
-  </si>
-  <si>
     <t>NASOL, JOSE OROLFO</t>
   </si>
   <si>
@@ -565,9 +424,6 @@
     <t>NAYVE, ALTHEA M.</t>
   </si>
   <si>
-    <t>NUNEZ, EVA TERESA SABIO (NEW) (STAFF)</t>
-  </si>
-  <si>
     <t>ONA, AGNES DYANGKO</t>
   </si>
   <si>
@@ -583,18 +439,12 @@
     <t>ORBE, MELVIN F.</t>
   </si>
   <si>
-    <t>ORTICIO, ANGELEE LATUGA (STAFF) (resigned)</t>
-  </si>
-  <si>
     <t>OSMA, SUSAN SARTE</t>
   </si>
   <si>
     <t>PADILLA, MA. CRISTINA ABRIL</t>
   </si>
   <si>
-    <t>PAGO, FROILAN MORTEGA (STAFF)</t>
-  </si>
-  <si>
     <t>PARANO, ROSIE BORCELIS</t>
   </si>
   <si>
@@ -604,9 +454,6 @@
     <t>PARDIÑAS, EDUARDO LIM</t>
   </si>
   <si>
-    <t>PASCUAL, ERLINDA BRITANICO (STAFF)</t>
-  </si>
-  <si>
     <t>PEÑAFIEL, JONATHAN BALUYO</t>
   </si>
   <si>
@@ -637,12 +484,6 @@
     <t>RAÑOLA, SUSAN</t>
   </si>
   <si>
-    <t>RAVALO, DON EXEQUIEL (NEW) (STAFF)</t>
-  </si>
-  <si>
-    <t>RAZAL, MARILYN SABERON (STAFF) (resigned)</t>
-  </si>
-  <si>
     <t>REALUYO, RUEL LEBI SANZ</t>
   </si>
   <si>
@@ -673,21 +514,12 @@
     <t>RELACION, JOSE JR. QUEROL</t>
   </si>
   <si>
-    <t>REMOLACIO, GLORIA DE LUMEN (STAFF)</t>
-  </si>
-  <si>
-    <t>RENOLAYAN, HILDO INOCENTES R. (withdraw)</t>
-  </si>
-  <si>
     <t>RETUERMA, REYNATO LUDOVICE</t>
   </si>
   <si>
     <t>REYES, NESTOR</t>
   </si>
   <si>
-    <t>REYES, ROWENA MIRABUENO (STAFF)</t>
-  </si>
-  <si>
     <t>RICO, LOURDES POBLETE</t>
   </si>
   <si>
@@ -712,12 +544,6 @@
     <t>RODRIGUEZ, EDGAR BORDEOS</t>
   </si>
   <si>
-    <t>ROMABON, JOSEFELITO JR. BILO (STAFF) (resigned)</t>
-  </si>
-  <si>
-    <t>ROMABON, MARIA CHRISTINE REYES (STAFF)</t>
-  </si>
-  <si>
     <t>ROMANO, MA. TERESA NIEVES</t>
   </si>
   <si>
@@ -730,15 +556,9 @@
     <t>SAMAR, WYNNS</t>
   </si>
   <si>
-    <t>SANTAYANA, ADRIANNE FELIZ S. (New)</t>
-  </si>
-  <si>
     <t>SISON, ARMI SAGUIDO</t>
   </si>
   <si>
-    <t>SUMONDA, RENIDO SAGUBAY (NEW) (STAFF)</t>
-  </si>
-  <si>
     <t>SURTIDA, MARY SYLA ANDAMON</t>
   </si>
   <si>
@@ -748,9 +568,6 @@
     <t>TABARA, MARIA AGUSTINA INA ROA</t>
   </si>
   <si>
-    <t>TAGOMATA, CINDY MELISSA (New)</t>
-  </si>
-  <si>
     <t>TAN, EDNA FREYA BARBA</t>
   </si>
   <si>
@@ -766,21 +583,12 @@
     <t>TEJADA, CATHERINE BUBAN</t>
   </si>
   <si>
-    <t>TEJERO, RIA JANE (New) (Staff)</t>
-  </si>
-  <si>
     <t>TEMPLADO, VIVIAN BABALCON</t>
   </si>
   <si>
-    <t>TOLEDO, MICHELLE BARRANDON (STAFF) (resigned)</t>
-  </si>
-  <si>
     <t>TRAYVILLA, LEMUEL CABRIDO</t>
   </si>
   <si>
-    <t>TRINIDAD, ANTONIO CORULLO  (STAFF)</t>
-  </si>
-  <si>
     <t>TRINIDAD, YOLANDA BORDEOS</t>
   </si>
   <si>
@@ -805,27 +613,9 @@
     <t>VILLANUEVA, BERLY M.</t>
   </si>
   <si>
-    <t>VOSOTROS, LESLIE ANN (New)</t>
-  </si>
-  <si>
-    <t>WONG, EDMUND LEE (withdrawn)</t>
-  </si>
-  <si>
-    <t>WONG, LORNA YAP (withdrawn)</t>
-  </si>
-  <si>
     <t>ZANTUA, RAOUL EMMANUEL O.</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Excess</t>
-  </si>
-  <si>
     <t>paid_up_capital</t>
   </si>
   <si>
@@ -833,6 +623,228 @@
   </si>
   <si>
     <t>noofshareds</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDES, BERNARD LORILLA </t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAMBRA, CHARITO MADRONIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDAL, CRISELIE MABUNGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARANAS, ALIZA CORTEZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARALLAS, RIA FLORA SANCHEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRIOS, DHUANE BIEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEGUIRAS, MA. CHRISTINA BARDE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEVENTE, FRANCO BRONCANO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONAGUA, BERNARDO BERTILLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL, ROSARIO EMILIA BONGON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROTAMONTE, TED ROTAECHE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUEBO, MAYLAINE BARCOMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUELLA, JOHN PAUL RACTIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUMALAY, MARY ANNE BURCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABILES, NOEL PEÑARUBIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAÑON, MARY ANN  BRON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERO, MARIA ANGELA NUÑEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASI, ELENA NAVARRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CID, JASON CARGULLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CID, VICENTE BOÑON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAVERIA, MARILOU ICARANOM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLAR, LILIA VICTORIA </t>
+  </si>
+  <si>
+    <t>DON, DENNIS  New)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCALANTE, MA. LUNINGNING SARMIENTA </t>
+  </si>
+  <si>
+    <t>ESCOTO, ARLEN BONAOBRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGO, FROILAN MORTEGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASCUAL, ERLINDA BRITANICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOLACIO, GLORIA DE LUMEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REYES, ROWENA MIRABUENO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMABON, MARIA CHRISTINE REYES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRINIDAD, ANTONIO CORULLO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAUTISTA, PRECIOSA BRUL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELEN, MICHELLE BRAGA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTICIO, ANGELEE LATUGA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAZAL, MARILYN SABERON  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMABON, JOSEFELITO JR. BILO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOLEDO, MICHELLE BARRANDON  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARONCE, NUMER  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASALLOTE, MA. LEA VANESSA MALLARI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROTAMANTE, MARY ANN BERAQUIT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLUMNA, MARITES BERMUNDO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBO, FREDDIE </t>
+  </si>
+  <si>
+    <t>DY, ESTER JEAN ROSAROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JARCIA, MICHAEL MARTIN BUELLA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATADE, KATHERINE MIRASOL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANZANERO, CARYL COLLENE TINO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINO, MELANIE Y. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARVAEZ, SWISS M.D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUNEZ, EVA TERESA SABIO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAVALO, DON EXEQUIEL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTAYANA, ADRIANNE FELIZ S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMONDA, RENIDO SAGUBAY  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAGOMATA, CINDY MELISSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEJERO, RIA JANE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOSOTROS, LESLIE ANN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAQUILALA, DANREB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARANDANG, MARIA ESTELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO, LOLITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVEZ, JOSEPH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVEZ, LUZVIMINDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WONG, EDMUND LEE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WONG, LORNA YAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAGA, ELVA CAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEL ROSARIO, ANNA LIZA CATALINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPIRITU, MA. LOURDES MEDINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENOLAYAN, HILDO INOCENTES R. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERGONIO, JULITA TORRECAMPO </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -913,7 +925,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -934,19 +946,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -973,7 +972,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -988,15 +986,18 @@
     <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1307,41 +1308,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75">
-      <c r="A1" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:11" ht="42.75">
+      <c r="A1" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1357,36 +1360,40 @@
       <c r="E2" s="3">
         <v>461000</v>
       </c>
-      <c r="F2" s="6">
-        <v>913.53903208166594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-1.5944070037221536E-3</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>-1.5944070037221536E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4">
         <v>135</v>
@@ -1397,16 +1404,22 @@
       <c r="E4" s="3">
         <v>135000</v>
       </c>
-      <c r="F4" s="6">
-        <v>524.7408319414244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4">
         <v>223</v>
@@ -1417,16 +1430,22 @@
       <c r="E5" s="3">
         <v>223000</v>
       </c>
-      <c r="F5" s="6">
-        <v>412.65689121867763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4">
         <v>78</v>
@@ -1437,56 +1456,56 @@
       <c r="E6" s="3">
         <v>78000</v>
       </c>
-      <c r="F6" s="6">
-        <v>800.92673455749173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="7">
         <v>36</v>
       </c>
       <c r="D7" s="3">
         <v>36769.040000000001</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>36000</v>
       </c>
-      <c r="F7" s="6">
-        <v>769.04000000000087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="7">
         <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>10022.6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>10000</v>
       </c>
-      <c r="F8" s="6">
-        <v>22.600000000000364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>360</v>
@@ -1497,16 +1516,16 @@
       <c r="E9" s="3">
         <v>360000</v>
       </c>
-      <c r="F9" s="6">
-        <v>855.59999999997672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
         <v>354</v>
@@ -1517,36 +1536,36 @@
       <c r="E10" s="3">
         <v>354000</v>
       </c>
-      <c r="F10" s="6">
-        <v>321.04433720291127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="7">
         <v>154</v>
       </c>
       <c r="D11" s="3">
         <v>154100.06875987753</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>154000</v>
       </c>
-      <c r="F11" s="6">
-        <v>100.06875987752574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
         <v>88</v>
@@ -1557,16 +1576,16 @@
       <c r="E12" s="3">
         <v>88000</v>
       </c>
-      <c r="F12" s="6">
-        <v>941.34676037720055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4">
         <v>221</v>
@@ -1577,36 +1596,36 @@
       <c r="E13" s="3">
         <v>221000</v>
       </c>
-      <c r="F13" s="6">
-        <v>726.01124261174118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="7">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>10000</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4">
         <v>70</v>
@@ -1617,16 +1636,16 @@
       <c r="E15" s="3">
         <v>70000</v>
       </c>
-      <c r="F15" s="6">
-        <v>196.77999999999884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <v>153</v>
@@ -1637,8 +1656,8 @@
       <c r="E16" s="3">
         <v>153000</v>
       </c>
-      <c r="F16" s="6">
-        <v>523.47038681429694</v>
+      <c r="F16" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1646,7 +1665,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
         <v>196</v>
@@ -1657,8 +1676,8 @@
       <c r="E17" s="3">
         <v>196000</v>
       </c>
-      <c r="F17" s="6">
-        <v>700.0751295319933</v>
+      <c r="F17" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1666,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <v>74</v>
@@ -1677,8 +1696,8 @@
       <c r="E18" s="3">
         <v>74000</v>
       </c>
-      <c r="F18" s="6">
-        <v>1.5914947247656528</v>
+      <c r="F18" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1686,7 +1705,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
         <v>104</v>
@@ -1697,28 +1716,28 @@
       <c r="E19" s="3">
         <v>104000</v>
       </c>
-      <c r="F19" s="6">
-        <v>654.75844131303893</v>
+      <c r="F19" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="7">
         <v>14</v>
       </c>
       <c r="D20" s="3">
         <v>14534.18</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>14000</v>
       </c>
-      <c r="F20" s="6">
-        <v>534.18000000000029</v>
+      <c r="F20" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1726,7 +1745,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
         <v>18</v>
@@ -1737,8 +1756,8 @@
       <c r="E21" s="3">
         <v>18000</v>
       </c>
-      <c r="F21" s="6">
-        <v>604.74882975279615</v>
+      <c r="F21" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1746,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4">
         <v>13</v>
@@ -1757,8 +1776,8 @@
       <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="6">
-        <v>866.55873088404587</v>
+      <c r="F22" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1766,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4">
         <v>148</v>
@@ -1777,8 +1796,8 @@
       <c r="E23" s="3">
         <v>148000</v>
       </c>
-      <c r="F23" s="6">
-        <v>171.74665182823082</v>
+      <c r="F23" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1786,7 +1805,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4">
         <v>69</v>
@@ -1797,8 +1816,8 @@
       <c r="E24" s="3">
         <v>69000</v>
       </c>
-      <c r="F24" s="6">
-        <v>92.919991494796705</v>
+      <c r="F24" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1806,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4">
         <v>39</v>
@@ -1817,8 +1836,8 @@
       <c r="E25" s="3">
         <v>39000</v>
       </c>
-      <c r="F25" s="6">
-        <v>839.41992112363369</v>
+      <c r="F25" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1826,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4">
         <v>29</v>
@@ -1837,48 +1856,48 @@
       <c r="E26" s="3">
         <v>29000</v>
       </c>
-      <c r="F26" s="6">
-        <v>372.59683540065089</v>
+      <c r="F26" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="7">
         <v>72</v>
       </c>
       <c r="D27" s="3">
         <v>72931.007687660182</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>72000</v>
       </c>
-      <c r="F27" s="6">
-        <v>931.00768766018155</v>
+      <c r="F27" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="7">
         <v>10</v>
       </c>
       <c r="D28" s="3">
         <v>10921.75</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>10000</v>
       </c>
-      <c r="F28" s="6">
-        <v>921.75</v>
+      <c r="F28" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1886,7 +1905,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4">
         <v>492</v>
@@ -1897,8 +1916,8 @@
       <c r="E29" s="3">
         <v>492000</v>
       </c>
-      <c r="F29" s="6">
-        <v>146.69034595915582</v>
+      <c r="F29" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1906,7 +1925,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4">
         <v>447</v>
@@ -1917,28 +1936,28 @@
       <c r="E30" s="3">
         <v>447000</v>
       </c>
-      <c r="F30" s="6">
-        <v>502.47156820050441</v>
+      <c r="F30" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="10">
         <v>0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0371647658757865E-4</v>
       </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1.0371647658757865E-4</v>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1946,7 +1965,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4">
         <v>182</v>
@@ -1957,28 +1976,28 @@
       <c r="E32" s="3">
         <v>182000</v>
       </c>
-      <c r="F32" s="6">
-        <v>36.500710436317604</v>
+      <c r="F32" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="B33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="7">
         <v>19</v>
       </c>
       <c r="D33" s="3">
         <v>19965.18</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>19000</v>
       </c>
-      <c r="F33" s="6">
-        <v>965.18000000000029</v>
+      <c r="F33" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1986,7 +2005,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
         <v>66</v>
@@ -1997,28 +2016,28 @@
       <c r="E34" s="3">
         <v>66000</v>
       </c>
-      <c r="F34" s="6">
-        <v>972.50999999999476</v>
+      <c r="F34" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B35" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="10">
         <v>0</v>
       </c>
       <c r="D35" s="3">
         <v>1.7908543668454513E-3</v>
       </c>
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1.7908543668454513E-3</v>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2026,7 +2045,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4">
         <v>86</v>
@@ -2037,8 +2056,8 @@
       <c r="E36" s="3">
         <v>86000</v>
       </c>
-      <c r="F36" s="6">
-        <v>144.53480207831308</v>
+      <c r="F36" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2046,7 +2065,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4">
         <v>71</v>
@@ -2057,8 +2076,8 @@
       <c r="E37" s="3">
         <v>71000</v>
       </c>
-      <c r="F37" s="6">
-        <v>133.42841370872338</v>
+      <c r="F37" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2066,7 +2085,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4">
         <v>169</v>
@@ -2077,28 +2096,28 @@
       <c r="E38" s="3">
         <v>169000</v>
       </c>
-      <c r="F38" s="6">
-        <v>145.93370519962627</v>
+      <c r="F38" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="7">
         <v>82</v>
       </c>
       <c r="D39" s="3">
         <v>82776.125486228149</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>82000</v>
       </c>
-      <c r="F39" s="6">
-        <v>776.12548622814938</v>
+      <c r="F39" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2106,7 +2125,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C40" s="4">
         <v>223</v>
@@ -2117,8 +2136,8 @@
       <c r="E40" s="3">
         <v>223000</v>
       </c>
-      <c r="F40" s="6">
-        <v>54.672170455014566</v>
+      <c r="F40" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2126,7 +2145,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C41" s="4">
         <v>289</v>
@@ -2137,28 +2156,22 @@
       <c r="E41" s="3">
         <v>289000</v>
       </c>
-      <c r="F41" s="6">
-        <v>79.442750268150121</v>
+      <c r="F41" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="11">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>-1.1559269623830914E-3</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>-1.1559269623830914E-3</v>
+      <c r="B42" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2166,7 +2179,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4">
         <v>56</v>
@@ -2177,8 +2190,8 @@
       <c r="E43" s="3">
         <v>56000</v>
       </c>
-      <c r="F43" s="6">
-        <v>305.73999999999796</v>
+      <c r="F43" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2186,7 +2199,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4">
         <v>189</v>
@@ -2197,8 +2210,8 @@
       <c r="E44" s="3">
         <v>189000</v>
       </c>
-      <c r="F44" s="6">
-        <v>570.66800751714618</v>
+      <c r="F44" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2206,7 +2219,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4">
         <v>280</v>
@@ -2217,8 +2230,8 @@
       <c r="E45" s="3">
         <v>280000</v>
       </c>
-      <c r="F45" s="6">
-        <v>574.81404506752733</v>
+      <c r="F45" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2226,7 +2239,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4">
         <v>45</v>
@@ -2237,8 +2250,8 @@
       <c r="E46" s="3">
         <v>45000</v>
       </c>
-      <c r="F46" s="6">
-        <v>575.55739724946034</v>
+      <c r="F46" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2246,7 +2259,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4">
         <v>442</v>
@@ -2257,8 +2270,8 @@
       <c r="E47" s="3">
         <v>442000</v>
       </c>
-      <c r="F47" s="6">
-        <v>295.27764621854294</v>
+      <c r="F47" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2266,7 +2279,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C48" s="4">
         <v>26</v>
@@ -2277,48 +2290,48 @@
       <c r="E48" s="3">
         <v>26000</v>
       </c>
-      <c r="F48" s="6">
-        <v>304.68000000000029</v>
+      <c r="F48" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="7">
         <v>39</v>
       </c>
       <c r="D49" s="3">
         <v>39456.473791447381</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>39000</v>
       </c>
-      <c r="F49" s="6">
-        <v>456.47379144738079</v>
+      <c r="F49" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="B50" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="7">
         <v>179</v>
       </c>
       <c r="D50" s="3">
         <v>179748.58451645507</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>179000</v>
       </c>
-      <c r="F50" s="6">
-        <v>748.58451645507012</v>
+      <c r="F50" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2326,7 +2339,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4">
         <v>97</v>
@@ -2337,28 +2350,22 @@
       <c r="E51" s="3">
         <v>97000</v>
       </c>
-      <c r="F51" s="6">
-        <v>734.94874325975252</v>
+      <c r="F51" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="11">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12">
-        <v>0</v>
-      </c>
-      <c r="F52" s="6">
-        <v>0</v>
+      <c r="B52" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2366,18 +2373,12 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6">
+        <v>50</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2385,40 +2386,40 @@
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="B54" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="7">
         <v>6</v>
       </c>
       <c r="D54" s="3">
         <v>6135.58</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>6000</v>
       </c>
-      <c r="F54" s="6">
-        <v>135.57999999999993</v>
+      <c r="F54" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="8">
+      <c r="B55" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="7">
         <v>24</v>
       </c>
       <c r="D55" s="3">
         <v>24660.887005954715</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>24000</v>
       </c>
-      <c r="F55" s="6">
-        <v>660.88700595471528</v>
+      <c r="F55" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2426,7 +2427,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4">
         <v>71</v>
@@ -2437,8 +2438,8 @@
       <c r="E56" s="3">
         <v>71000</v>
       </c>
-      <c r="F56" s="6">
-        <v>172.67631358430663</v>
+      <c r="F56" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2446,7 +2447,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4">
         <v>33</v>
@@ -2457,48 +2458,48 @@
       <c r="E57" s="3">
         <v>33000</v>
       </c>
-      <c r="F57" s="6">
-        <v>42.241282570939802</v>
+      <c r="F57" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="B58" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="7">
         <v>19</v>
       </c>
       <c r="D58" s="3">
         <v>19931.850000000002</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>19000</v>
       </c>
-      <c r="F58" s="6">
-        <v>931.85000000000218</v>
+      <c r="F58" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="B59" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="7">
         <v>10</v>
       </c>
       <c r="D59" s="3">
         <v>10865.28</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>10000</v>
       </c>
-      <c r="F59" s="6">
-        <v>865.28000000000065</v>
+      <c r="F59" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2506,7 +2507,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C60" s="4">
         <v>120</v>
@@ -2517,8 +2518,8 @@
       <c r="E60" s="3">
         <v>120000</v>
       </c>
-      <c r="F60" s="6">
-        <v>547.08667083331966</v>
+      <c r="F60" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2526,7 +2527,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C61" s="4">
         <v>86</v>
@@ -2537,8 +2538,8 @@
       <c r="E61" s="3">
         <v>86000</v>
       </c>
-      <c r="F61" s="6">
-        <v>654.51816076322575</v>
+      <c r="F61" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2546,7 +2547,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C62" s="4">
         <v>112</v>
@@ -2557,8 +2558,8 @@
       <c r="E62" s="3">
         <v>112000</v>
       </c>
-      <c r="F62" s="6">
-        <v>145.50444841742865</v>
+      <c r="F62" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2566,7 +2567,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C63" s="4">
         <v>18</v>
@@ -2577,48 +2578,48 @@
       <c r="E63" s="3">
         <v>18000</v>
       </c>
-      <c r="F63" s="6">
-        <v>892.96444841742414</v>
+      <c r="F63" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="7">
         <v>44</v>
       </c>
       <c r="D64" s="3">
         <v>44415.240000000005</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>44000</v>
       </c>
-      <c r="F64" s="6">
-        <v>415.24000000000524</v>
+      <c r="F64" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="7">
         <v>78</v>
       </c>
       <c r="D65" s="3">
         <v>78905.304142591354</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>78000</v>
       </c>
-      <c r="F65" s="6">
-        <v>905.30414259135432</v>
+      <c r="F65" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2626,7 +2627,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C66" s="4">
         <v>11</v>
@@ -2637,8 +2638,8 @@
       <c r="E66" s="3">
         <v>11000</v>
       </c>
-      <c r="F66" s="6">
-        <v>755.50155286352856</v>
+      <c r="F66" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2646,7 +2647,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C67" s="4">
         <v>71</v>
@@ -2657,36 +2658,36 @@
       <c r="E67" s="3">
         <v>71000</v>
       </c>
-      <c r="F67" s="6">
-        <v>664.62754570186371</v>
+      <c r="F67" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="8">
+      <c r="B68" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="7">
         <v>151</v>
       </c>
       <c r="D68" s="3">
         <v>151056.595220352</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>151000</v>
       </c>
-      <c r="F68" s="6">
-        <v>56.59522035199916</v>
+      <c r="F68" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>82</v>
+      <c r="B69" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C69" s="4">
         <v>97</v>
@@ -2697,8 +2698,8 @@
       <c r="E69" s="3">
         <v>97000</v>
       </c>
-      <c r="F69" s="6">
-        <v>304.42445529060205</v>
+      <c r="F69" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2706,7 +2707,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C70" s="4">
         <v>51</v>
@@ -2717,8 +2718,8 @@
       <c r="E70" s="3">
         <v>51000</v>
       </c>
-      <c r="F70" s="6">
-        <v>380.48380437322339</v>
+      <c r="F70" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2726,7 +2727,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C71" s="4">
         <v>75</v>
@@ -2737,48 +2738,36 @@
       <c r="E71" s="3">
         <v>75000</v>
       </c>
-      <c r="F71" s="6">
-        <v>533.49858687986853</v>
+      <c r="F71" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="11">
-        <v>0</v>
-      </c>
-      <c r="D72" s="3">
-        <v>-2.526119293179363E-3</v>
-      </c>
-      <c r="E72" s="12">
-        <v>0</v>
-      </c>
-      <c r="F72" s="6">
-        <v>-2.526119293179363E-3</v>
+      <c r="B72" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="11">
-        <v>0</v>
-      </c>
-      <c r="D73" s="3">
-        <v>-4.9098788731498644E-3</v>
-      </c>
-      <c r="E73" s="12">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6">
-        <v>-4.9098788731498644E-3</v>
+      <c r="B73" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2786,7 +2775,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C74" s="4">
         <v>44</v>
@@ -2797,68 +2786,56 @@
       <c r="E74" s="3">
         <v>44000</v>
       </c>
-      <c r="F74" s="6">
-        <v>428.81999999999971</v>
+      <c r="F74" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="11">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3">
-        <v>2.3612625955138355E-3</v>
-      </c>
-      <c r="E75" s="12">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
-        <v>2.3612625955138355E-3</v>
+      <c r="B75" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="8">
+      <c r="B76" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="7">
         <v>42</v>
       </c>
       <c r="D76" s="3">
         <v>42506.015198999012</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>42000</v>
       </c>
-      <c r="F76" s="6">
-        <v>506.01519899901177</v>
+      <c r="F76" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="11">
-        <v>0</v>
-      </c>
-      <c r="D77" s="3">
-        <v>-2.1612185864796629E-3</v>
-      </c>
-      <c r="E77" s="12">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <v>-2.1612185864796629E-3</v>
+      <c r="B77" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2866,7 +2843,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C78" s="4">
         <v>225</v>
@@ -2877,8 +2854,8 @@
       <c r="E78" s="3">
         <v>225000</v>
       </c>
-      <c r="F78" s="6">
-        <v>420.90515939166653</v>
+      <c r="F78" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2886,7 +2863,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C79" s="4">
         <v>59</v>
@@ -2897,68 +2874,50 @@
       <c r="E79" s="3">
         <v>59000</v>
       </c>
-      <c r="F79" s="6">
-        <v>943.90000000000146</v>
+      <c r="F79" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="11">
-        <v>0</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="12">
-        <v>0</v>
-      </c>
-      <c r="F80" s="6">
-        <v>0</v>
+      <c r="B80" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="11">
-        <v>0</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="12">
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <v>0</v>
+      <c r="B81" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" s="11">
-        <v>0</v>
-      </c>
-      <c r="D82" s="3">
-        <v>-7.3516214615665376E-4</v>
-      </c>
-      <c r="E82" s="12">
-        <v>0</v>
-      </c>
-      <c r="F82" s="6">
-        <v>-7.3516214615665376E-4</v>
+      <c r="B82" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2966,7 +2925,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C83" s="4">
         <v>173</v>
@@ -2977,28 +2936,22 @@
       <c r="E83" s="3">
         <v>173000</v>
       </c>
-      <c r="F83" s="6">
-        <v>894.09616567881312</v>
+      <c r="F83" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" s="11">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3">
-        <v>3.1900566536933184E-3</v>
-      </c>
-      <c r="E84" s="12">
-        <v>0</v>
-      </c>
-      <c r="F84" s="6">
-        <v>3.1900566536933184E-3</v>
+      <c r="B84" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3006,7 +2959,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C85" s="4">
         <v>268</v>
@@ -3017,68 +2970,68 @@
       <c r="E85" s="3">
         <v>268000</v>
       </c>
-      <c r="F85" s="6">
-        <v>23.048941600543913</v>
+      <c r="F85" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="8">
+      <c r="B86" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="7">
         <v>11</v>
       </c>
       <c r="D86" s="3">
         <v>11223.6</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="8">
         <v>11000</v>
       </c>
-      <c r="F86" s="6">
-        <v>223.60000000000036</v>
+      <c r="F86" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="8">
+      <c r="B87" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" s="7">
         <v>48</v>
       </c>
       <c r="D87" s="3">
         <v>48932.417021083391</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>48000</v>
       </c>
-      <c r="F87" s="6">
-        <v>932.41702108339086</v>
+      <c r="F87" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="8">
+      <c r="B88" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="7">
         <v>143</v>
       </c>
       <c r="D88" s="3">
         <v>143935.42783292773</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>143000</v>
       </c>
-      <c r="F88" s="6">
-        <v>935.42783292772947</v>
+      <c r="F88" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3086,7 +3039,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C89" s="4">
         <v>51</v>
@@ -3097,48 +3050,48 @@
       <c r="E89" s="3">
         <v>51000</v>
       </c>
-      <c r="F89" s="6">
-        <v>210.30305487599253</v>
+      <c r="F89" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="8">
+      <c r="B90" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="7">
         <v>162</v>
       </c>
       <c r="D90" s="3">
         <v>162521.4621693567</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="8">
         <v>162000</v>
       </c>
-      <c r="F90" s="6">
-        <v>521.46216935670236</v>
+      <c r="F90" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="8">
+      <c r="B91" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="7">
         <v>10</v>
       </c>
       <c r="D91" s="3">
         <v>10007.200000000001</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>10000</v>
       </c>
-      <c r="F91" s="6">
-        <v>7.2000000000007276</v>
+      <c r="F91" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3146,7 +3099,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -3157,7 +3110,7 @@
       <c r="E92" s="3">
         <v>1000</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="15">
         <v>0</v>
       </c>
     </row>
@@ -3166,7 +3119,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C93" s="4">
         <v>206</v>
@@ -3177,8 +3130,8 @@
       <c r="E93" s="3">
         <v>206000</v>
       </c>
-      <c r="F93" s="6">
-        <v>700.06881086196518</v>
+      <c r="F93" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3186,7 +3139,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C94" s="4">
         <v>35</v>
@@ -3197,8 +3150,8 @@
       <c r="E94" s="3">
         <v>35000</v>
       </c>
-      <c r="F94" s="6">
-        <v>277.52322679116332</v>
+      <c r="F94" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3206,7 +3159,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C95" s="4">
         <v>240</v>
@@ -3217,8 +3170,8 @@
       <c r="E95" s="3">
         <v>240000</v>
       </c>
-      <c r="F95" s="6">
-        <v>615.49783215599018</v>
+      <c r="F95" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3226,7 +3179,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C96" s="4">
         <v>158</v>
@@ -3237,8 +3190,8 @@
       <c r="E96" s="3">
         <v>158000</v>
       </c>
-      <c r="F96" s="6">
-        <v>734.74936806884944</v>
+      <c r="F96" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3246,7 +3199,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C97" s="4">
         <v>85</v>
@@ -3257,8 +3210,8 @@
       <c r="E97" s="3">
         <v>85000</v>
       </c>
-      <c r="F97" s="6">
-        <v>799.99687564636406</v>
+      <c r="F97" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3266,7 +3219,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C98" s="4">
         <v>168</v>
@@ -3277,8 +3230,8 @@
       <c r="E98" s="3">
         <v>168000</v>
       </c>
-      <c r="F98" s="6">
-        <v>821.42278646229533</v>
+      <c r="F98" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3286,7 +3239,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C99" s="4">
         <v>291</v>
@@ -3297,28 +3250,22 @@
       <c r="E99" s="3">
         <v>291000</v>
       </c>
-      <c r="F99" s="6">
-        <v>933.81733034848003</v>
+      <c r="F99" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="11">
-        <v>0</v>
-      </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="12">
-        <v>0</v>
-      </c>
-      <c r="F100" s="6">
-        <v>0</v>
+      <c r="B100" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3326,7 +3273,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C101" s="4">
         <v>63</v>
@@ -3337,8 +3284,8 @@
       <c r="E101" s="3">
         <v>63000</v>
       </c>
-      <c r="F101" s="6">
-        <v>959.68000000000029</v>
+      <c r="F101" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3346,7 +3293,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C102" s="4">
         <v>133</v>
@@ -3357,8 +3304,8 @@
       <c r="E102" s="3">
         <v>133000</v>
       </c>
-      <c r="F102" s="6">
-        <v>425.48316851901473</v>
+      <c r="F102" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3366,7 +3313,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C103" s="4">
         <v>236</v>
@@ -3377,8 +3324,8 @@
       <c r="E103" s="3">
         <v>236000</v>
       </c>
-      <c r="F103" s="6">
-        <v>842.37993581738556</v>
+      <c r="F103" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3386,7 +3333,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C104" s="4">
         <v>124</v>
@@ -3397,28 +3344,28 @@
       <c r="E104" s="3">
         <v>124000</v>
       </c>
-      <c r="F104" s="6">
-        <v>243.82425571826752</v>
+      <c r="F104" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="8">
+      <c r="B105" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" s="7">
         <v>10</v>
       </c>
       <c r="D105" s="3">
         <v>10000</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="8">
         <v>10000</v>
       </c>
-      <c r="F105" s="6">
-        <v>0</v>
+      <c r="F105" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3426,7 +3373,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="C106" s="4">
         <v>51</v>
@@ -3437,8 +3384,8 @@
       <c r="E106" s="3">
         <v>51000</v>
       </c>
-      <c r="F106" s="6">
-        <v>545.25702086933597</v>
+      <c r="F106" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3446,7 +3393,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C107" s="4">
         <v>206</v>
@@ -3457,8 +3404,8 @@
       <c r="E107" s="3">
         <v>206000</v>
       </c>
-      <c r="F107" s="6">
-        <v>280.40461127640447</v>
+      <c r="F107" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3466,7 +3413,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C108" s="4">
         <v>418</v>
@@ -3477,48 +3424,48 @@
       <c r="E108" s="3">
         <v>418000</v>
       </c>
-      <c r="F108" s="6">
-        <v>826.74493714101845</v>
+      <c r="F108" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="8">
+      <c r="B109" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="7">
         <v>158</v>
       </c>
       <c r="D109" s="3">
         <v>158617.06948498217</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="8">
         <v>158000</v>
       </c>
-      <c r="F109" s="6">
-        <v>617.06948498217389</v>
+      <c r="F109" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C110" s="8">
+      <c r="B110" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="7">
         <v>38</v>
       </c>
       <c r="D110" s="3">
         <v>38728.679999999993</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="8">
         <v>38000</v>
       </c>
-      <c r="F110" s="6">
-        <v>728.67999999999302</v>
+      <c r="F110" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3526,7 +3473,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -3537,8 +3484,8 @@
       <c r="E111" s="3">
         <v>1000</v>
       </c>
-      <c r="F111" s="6">
-        <v>363.51015664051943</v>
+      <c r="F111" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3546,7 +3493,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C112" s="4">
         <v>125</v>
@@ -3557,8 +3504,8 @@
       <c r="E112" s="3">
         <v>125000</v>
       </c>
-      <c r="F112" s="6">
-        <v>213.5756388357695</v>
+      <c r="F112" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3566,7 +3513,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C113" s="4">
         <v>13</v>
@@ -3577,28 +3524,22 @@
       <c r="E113" s="3">
         <v>13000</v>
       </c>
-      <c r="F113" s="6">
-        <v>402.09999999999854</v>
+      <c r="F113" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C114" s="11">
-        <v>0</v>
-      </c>
-      <c r="D114" s="3">
-        <v>-2.8192681638756767E-3</v>
-      </c>
-      <c r="E114" s="12">
-        <v>0</v>
-      </c>
-      <c r="F114" s="6">
-        <v>-2.8192681638756767E-3</v>
+      <c r="B114" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3606,7 +3547,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C115" s="4">
         <v>14</v>
@@ -3617,8 +3558,8 @@
       <c r="E115" s="3">
         <v>14000</v>
       </c>
-      <c r="F115" s="6">
-        <v>100.76095847289253</v>
+      <c r="F115" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3626,7 +3567,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C116" s="4">
         <v>67</v>
@@ -3637,8 +3578,8 @@
       <c r="E116" s="3">
         <v>67000</v>
       </c>
-      <c r="F116" s="6">
-        <v>320.65226839070965</v>
+      <c r="F116" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3646,7 +3587,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C117" s="4">
         <v>22</v>
@@ -3657,8 +3598,8 @@
       <c r="E117" s="3">
         <v>22000</v>
       </c>
-      <c r="F117" s="6">
-        <v>373.61678767088233</v>
+      <c r="F117" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3666,7 +3607,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="C118" s="4">
         <v>272</v>
@@ -3677,8 +3618,8 @@
       <c r="E118" s="3">
         <v>272000</v>
       </c>
-      <c r="F118" s="6">
-        <v>711.22492044541286</v>
+      <c r="F118" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3686,7 +3627,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="C119" s="4">
         <v>35</v>
@@ -3697,8 +3638,8 @@
       <c r="E119" s="3">
         <v>35000</v>
       </c>
-      <c r="F119" s="6">
-        <v>525.25</v>
+      <c r="F119" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3706,7 +3647,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C120" s="4">
         <v>14</v>
@@ -3717,8 +3658,8 @@
       <c r="E120" s="3">
         <v>14000</v>
       </c>
-      <c r="F120" s="6">
-        <v>716.89620673689751</v>
+      <c r="F120" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3726,7 +3667,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C121" s="4">
         <v>256</v>
@@ -3737,8 +3678,8 @@
       <c r="E121" s="3">
         <v>256000</v>
       </c>
-      <c r="F121" s="6">
-        <v>728.72694906682591</v>
+      <c r="F121" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3746,7 +3687,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C122" s="4">
         <v>3</v>
@@ -3757,8 +3698,8 @@
       <c r="E122" s="3">
         <v>3000</v>
       </c>
-      <c r="F122" s="6">
-        <v>681.96074087244779</v>
+      <c r="F122" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3766,7 +3707,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C123" s="4">
         <v>295</v>
@@ -3777,8 +3718,8 @@
       <c r="E123" s="3">
         <v>295000</v>
       </c>
-      <c r="F123" s="6">
-        <v>166.65159193566069</v>
+      <c r="F123" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3786,7 +3727,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C124" s="4">
         <v>232</v>
@@ -3797,8 +3738,8 @@
       <c r="E124" s="3">
         <v>232000</v>
       </c>
-      <c r="F124" s="6">
-        <v>108.46838564993232</v>
+      <c r="F124" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3806,7 +3747,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C125" s="4">
         <v>217</v>
@@ -3817,8 +3758,8 @@
       <c r="E125" s="3">
         <v>217000</v>
       </c>
-      <c r="F125" s="6">
-        <v>552.98509160103276</v>
+      <c r="F125" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3826,7 +3767,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C126" s="4">
         <v>184</v>
@@ -3837,8 +3778,8 @@
       <c r="E126" s="3">
         <v>184000</v>
       </c>
-      <c r="F126" s="6">
-        <v>960.8151243137836</v>
+      <c r="F126" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3846,7 +3787,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C127" s="4">
         <v>77</v>
@@ -3857,8 +3798,8 @@
       <c r="E127" s="3">
         <v>77000</v>
       </c>
-      <c r="F127" s="6">
-        <v>111.24153342974023</v>
+      <c r="F127" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3866,7 +3807,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C128" s="4">
         <v>68</v>
@@ -3877,8 +3818,8 @@
       <c r="E128" s="3">
         <v>68000</v>
       </c>
-      <c r="F128" s="6">
-        <v>379.32673455748591</v>
+      <c r="F128" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3886,7 +3827,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C129" s="4">
         <v>185</v>
@@ -3897,8 +3838,8 @@
       <c r="E129" s="3">
         <v>185000</v>
       </c>
-      <c r="F129" s="6">
-        <v>319.48547381738899</v>
+      <c r="F129" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3906,7 +3847,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="C130" s="4">
         <v>59</v>
@@ -3917,8 +3858,8 @@
       <c r="E130" s="3">
         <v>59000</v>
       </c>
-      <c r="F130" s="6">
-        <v>441.00603113049146</v>
+      <c r="F130" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3926,7 +3867,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C131" s="4">
         <v>57</v>
@@ -3937,8 +3878,8 @@
       <c r="E131" s="3">
         <v>57000</v>
       </c>
-      <c r="F131" s="6">
-        <v>844.54000000000087</v>
+      <c r="F131" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3946,7 +3887,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="C132" s="4">
         <v>330</v>
@@ -3957,8 +3898,8 @@
       <c r="E132" s="3">
         <v>330000</v>
       </c>
-      <c r="F132" s="6">
-        <v>51.273640378960408</v>
+      <c r="F132" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3966,7 +3907,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C133" s="4">
         <v>51</v>
@@ -3977,8 +3918,8 @@
       <c r="E133" s="3">
         <v>51000</v>
       </c>
-      <c r="F133" s="6">
-        <v>796.012758185032</v>
+      <c r="F133" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3986,7 +3927,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C134" s="4">
         <v>186</v>
@@ -3997,28 +3938,28 @@
       <c r="E134" s="3">
         <v>186000</v>
       </c>
-      <c r="F134" s="6">
-        <v>408.65511762734968</v>
+      <c r="F134" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" s="8">
+      <c r="B135" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" s="7">
         <v>10</v>
       </c>
       <c r="D135" s="3">
         <v>10008.620000000001</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="8">
         <v>10000</v>
       </c>
-      <c r="F135" s="6">
-        <v>8.6200000000008004</v>
+      <c r="F135" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4026,7 +3967,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="C136" s="4">
         <v>283</v>
@@ -4037,8 +3978,8 @@
       <c r="E136" s="3">
         <v>283000</v>
       </c>
-      <c r="F136" s="6">
-        <v>497.56952448072843</v>
+      <c r="F136" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4046,7 +3987,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C137" s="4">
         <v>50</v>
@@ -4057,7 +3998,7 @@
       <c r="E137" s="3">
         <v>50000</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="15">
         <v>0</v>
       </c>
     </row>
@@ -4066,7 +4007,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C138" s="4">
         <v>218</v>
@@ -4077,8 +4018,8 @@
       <c r="E138" s="3">
         <v>218000</v>
       </c>
-      <c r="F138" s="6">
-        <v>978.01555184763856</v>
+      <c r="F138" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4086,7 +4027,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C139" s="4">
         <v>63</v>
@@ -4097,8 +4038,8 @@
       <c r="E139" s="3">
         <v>63000</v>
       </c>
-      <c r="F139" s="6">
-        <v>57.033286065590801</v>
+      <c r="F139" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4106,7 +4047,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="C140" s="4">
         <v>70</v>
@@ -4117,8 +4058,8 @@
       <c r="E140" s="3">
         <v>70000</v>
       </c>
-      <c r="F140" s="6">
-        <v>536.97999999999593</v>
+      <c r="F140" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4126,7 +4067,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C141" s="4">
         <v>200</v>
@@ -4137,8 +4078,8 @@
       <c r="E141" s="3">
         <v>200000</v>
       </c>
-      <c r="F141" s="6">
-        <v>49.280232898250688</v>
+      <c r="F141" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4146,7 +4087,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C142" s="4">
         <v>258</v>
@@ -4157,8 +4098,8 @@
       <c r="E142" s="3">
         <v>258000</v>
       </c>
-      <c r="F142" s="6">
-        <v>18.458605508349137</v>
+      <c r="F142" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4166,7 +4107,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C143" s="4">
         <v>103</v>
@@ -4177,8 +4118,8 @@
       <c r="E143" s="3">
         <v>103000</v>
       </c>
-      <c r="F143" s="6">
-        <v>149.5481168844417</v>
+      <c r="F143" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4186,7 +4127,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="C144" s="4">
         <v>27</v>
@@ -4197,8 +4138,8 @@
       <c r="E144" s="3">
         <v>27000</v>
       </c>
-      <c r="F144" s="6">
-        <v>618.79605531588822</v>
+      <c r="F144" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4206,7 +4147,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="C145" s="4">
         <v>295</v>
@@ -4217,8 +4158,8 @@
       <c r="E145" s="3">
         <v>295000</v>
       </c>
-      <c r="F145" s="6">
-        <v>418.34132937924005</v>
+      <c r="F145" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4226,7 +4167,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C146" s="4">
         <v>50</v>
@@ -4237,8 +4178,8 @@
       <c r="E146" s="3">
         <v>50000</v>
       </c>
-      <c r="F146" s="6">
-        <v>650.63205597180058</v>
+      <c r="F146" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4246,7 +4187,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C147" s="4">
         <v>146</v>
@@ -4257,28 +4198,28 @@
       <c r="E147" s="3">
         <v>146000</v>
       </c>
-      <c r="F147" s="6">
-        <v>263.10975219812826</v>
+      <c r="F147" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C148" s="8">
+      <c r="B148" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C148" s="7">
         <v>15</v>
       </c>
       <c r="D148" s="3">
         <v>15546.1</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="8">
         <v>15000</v>
       </c>
-      <c r="F148" s="6">
-        <v>546.10000000000036</v>
+      <c r="F148" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4286,7 +4227,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="C149" s="4">
         <v>10</v>
@@ -4297,8 +4238,8 @@
       <c r="E149" s="3">
         <v>10000</v>
       </c>
-      <c r="F149" s="6">
-        <v>602.59257001728292</v>
+      <c r="F149" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4306,7 +4247,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C150" s="4">
         <v>99</v>
@@ -4317,8 +4258,8 @@
       <c r="E150" s="3">
         <v>99000</v>
       </c>
-      <c r="F150" s="6">
-        <v>880.97595044829359</v>
+      <c r="F150" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4326,7 +4267,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="C151" s="4">
         <v>12</v>
@@ -4337,8 +4278,8 @@
       <c r="E151" s="3">
         <v>12000</v>
       </c>
-      <c r="F151" s="6">
-        <v>472.65356807470744</v>
+      <c r="F151" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4346,7 +4287,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C152" s="4">
         <v>169</v>
@@ -4357,8 +4298,8 @@
       <c r="E152" s="3">
         <v>169000</v>
       </c>
-      <c r="F152" s="6">
-        <v>394.8149582509941</v>
+      <c r="F152" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4366,7 +4307,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C153" s="4">
         <v>18</v>
@@ -4377,8 +4318,8 @@
       <c r="E153" s="3">
         <v>18000</v>
       </c>
-      <c r="F153" s="6">
-        <v>570.85230192186646</v>
+      <c r="F153" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4386,7 +4327,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C154" s="4">
         <v>221</v>
@@ -4397,8 +4338,8 @@
       <c r="E154" s="3">
         <v>221000</v>
       </c>
-      <c r="F154" s="6">
-        <v>291.28375962347491</v>
+      <c r="F154" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4406,7 +4347,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C155" s="4">
         <v>91</v>
@@ -4417,8 +4358,8 @@
       <c r="E155" s="3">
         <v>91000</v>
       </c>
-      <c r="F155" s="6">
-        <v>110.92514365611714</v>
+      <c r="F155" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4426,7 +4367,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C156" s="4">
         <v>273</v>
@@ -4437,8 +4378,8 @@
       <c r="E156" s="3">
         <v>273000</v>
       </c>
-      <c r="F156" s="6">
-        <v>899.60312888934277</v>
+      <c r="F156" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4446,7 +4387,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C157" s="4">
         <v>273</v>
@@ -4457,8 +4398,8 @@
       <c r="E157" s="3">
         <v>273000</v>
       </c>
-      <c r="F157" s="6">
-        <v>822.11901016673073</v>
+      <c r="F157" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4466,7 +4407,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C158" s="4">
         <v>381</v>
@@ -4477,8 +4418,8 @@
       <c r="E158" s="3">
         <v>381000</v>
       </c>
-      <c r="F158" s="6">
-        <v>322.75760160572827</v>
+      <c r="F158" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4486,7 +4427,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C159" s="4">
         <v>33</v>
@@ -4497,8 +4438,8 @@
       <c r="E159" s="3">
         <v>33000</v>
       </c>
-      <c r="F159" s="6">
-        <v>335.20829562166909</v>
+      <c r="F159" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4506,7 +4447,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C160" s="4">
         <v>97</v>
@@ -4517,8 +4458,8 @@
       <c r="E160" s="3">
         <v>97000</v>
       </c>
-      <c r="F160" s="6">
-        <v>112.22051184462907</v>
+      <c r="F160" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4526,7 +4467,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C161" s="4">
         <v>1151</v>
@@ -4537,8 +4478,8 @@
       <c r="E161" s="3">
         <v>1151000</v>
       </c>
-      <c r="F161" s="6">
-        <v>229.07154292427003</v>
+      <c r="F161" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4546,7 +4487,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C162" s="4">
         <v>122</v>
@@ -4557,8 +4498,8 @@
       <c r="E162" s="3">
         <v>122000</v>
       </c>
-      <c r="F162" s="6">
-        <v>28.19999999999709</v>
+      <c r="F162" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4566,7 +4507,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C163" s="4">
         <v>164</v>
@@ -4577,8 +4518,8 @@
       <c r="E163" s="3">
         <v>164000</v>
       </c>
-      <c r="F163" s="6">
-        <v>300.18537665897748</v>
+      <c r="F163" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4586,7 +4527,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="C164" s="4">
         <v>10</v>
@@ -4597,7 +4538,7 @@
       <c r="E164" s="3">
         <v>10000</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F164" s="15">
         <v>0</v>
       </c>
     </row>
@@ -4606,7 +4547,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C165" s="4">
         <v>656</v>
@@ -4617,8 +4558,8 @@
       <c r="E165" s="3">
         <v>656000</v>
       </c>
-      <c r="F165" s="6">
-        <v>595.24416241957806</v>
+      <c r="F165" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4626,7 +4567,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C166" s="4">
         <v>73</v>
@@ -4637,8 +4578,8 @@
       <c r="E166" s="3">
         <v>73000</v>
       </c>
-      <c r="F166" s="6">
-        <v>498.13940978028404</v>
+      <c r="F166" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4646,7 +4587,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C167" s="4">
         <v>202</v>
@@ -4657,28 +4598,28 @@
       <c r="E167" s="3">
         <v>202000</v>
       </c>
-      <c r="F167" s="6">
-        <v>716.09079412717256</v>
+      <c r="F167" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="8">
+      <c r="B168" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C168" s="7">
         <v>10</v>
       </c>
       <c r="D168" s="3">
         <v>10406.75</v>
       </c>
-      <c r="E168" s="9">
+      <c r="E168" s="8">
         <v>10000</v>
       </c>
-      <c r="F168" s="6">
-        <v>406.75</v>
+      <c r="F168" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4686,7 +4627,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="C169" s="4">
         <v>265</v>
@@ -4697,8 +4638,8 @@
       <c r="E169" s="3">
         <v>265000</v>
       </c>
-      <c r="F169" s="6">
-        <v>932.57238617277471</v>
+      <c r="F169" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4706,7 +4647,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C170" s="4">
         <v>70</v>
@@ -4717,8 +4658,8 @@
       <c r="E170" s="3">
         <v>70000</v>
       </c>
-      <c r="F170" s="6">
-        <v>315.80000000000291</v>
+      <c r="F170" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4726,7 +4667,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C171" s="4">
         <v>23</v>
@@ -4737,8 +4678,8 @@
       <c r="E171" s="3">
         <v>23000</v>
       </c>
-      <c r="F171" s="6">
-        <v>103.93835213496641</v>
+      <c r="F171" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4746,7 +4687,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="C172" s="4">
         <v>42</v>
@@ -4757,8 +4698,8 @@
       <c r="E172" s="3">
         <v>42000</v>
       </c>
-      <c r="F172" s="6">
-        <v>952.26977255853126</v>
+      <c r="F172" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4766,7 +4707,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="C173" s="4">
         <v>49</v>
@@ -4777,28 +4718,22 @@
       <c r="E173" s="3">
         <v>49000</v>
       </c>
-      <c r="F173" s="6">
-        <v>487.88192052544764</v>
+      <c r="F173" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C174" s="11">
-        <v>0</v>
-      </c>
-      <c r="D174" s="3">
-        <v>0</v>
-      </c>
-      <c r="E174" s="12">
-        <v>0</v>
-      </c>
-      <c r="F174" s="6">
-        <v>0</v>
+      <c r="B174" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4806,7 +4741,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C175" s="4">
         <v>91</v>
@@ -4817,8 +4752,8 @@
       <c r="E175" s="3">
         <v>91000</v>
       </c>
-      <c r="F175" s="6">
-        <v>669.58717401258764</v>
+      <c r="F175" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4826,7 +4761,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="C176" s="4">
         <v>255</v>
@@ -4837,28 +4772,28 @@
       <c r="E176" s="3">
         <v>255000</v>
       </c>
-      <c r="F176" s="6">
-        <v>975.61660718458006</v>
+      <c r="F176" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C177" s="8">
+      <c r="B177" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C177" s="7">
         <v>160</v>
       </c>
       <c r="D177" s="3">
         <v>160692.47247455132</v>
       </c>
-      <c r="E177" s="9">
+      <c r="E177" s="8">
         <v>160000</v>
       </c>
-      <c r="F177" s="6">
-        <v>692.4724745513231</v>
+      <c r="F177" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4866,7 +4801,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="C178" s="4">
         <v>96</v>
@@ -4877,8 +4812,8 @@
       <c r="E178" s="3">
         <v>96000</v>
       </c>
-      <c r="F178" s="6">
-        <v>658.02936149245943</v>
+      <c r="F178" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4886,7 +4821,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="C179" s="4">
         <v>152</v>
@@ -4897,8 +4832,8 @@
       <c r="E179" s="3">
         <v>152000</v>
       </c>
-      <c r="F179" s="6">
-        <v>727.19898293766892</v>
+      <c r="F179" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4906,7 +4841,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="C180" s="4">
         <v>234</v>
@@ -4917,28 +4852,28 @@
       <c r="E180" s="3">
         <v>234000</v>
       </c>
-      <c r="F180" s="6">
-        <v>786.7794846460456</v>
+      <c r="F180" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C181" s="8">
+      <c r="B181" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C181" s="7">
         <v>65</v>
       </c>
       <c r="D181" s="3">
         <v>65485.321788443092</v>
       </c>
-      <c r="E181" s="9">
+      <c r="E181" s="8">
         <v>65000</v>
       </c>
-      <c r="F181" s="6">
-        <v>485.32178844309237</v>
+      <c r="F181" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4946,7 +4881,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="C182" s="4">
         <v>27</v>
@@ -4957,8 +4892,8 @@
       <c r="E182" s="3">
         <v>27000</v>
       </c>
-      <c r="F182" s="6">
-        <v>258.86659173125372</v>
+      <c r="F182" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4966,7 +4901,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C183" s="4">
         <v>192</v>
@@ -4977,8 +4912,8 @@
       <c r="E183" s="3">
         <v>192000</v>
       </c>
-      <c r="F183" s="6">
-        <v>416.75303813238861</v>
+      <c r="F183" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4986,7 +4921,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="C184" s="4">
         <v>12</v>
@@ -4997,8 +4932,8 @@
       <c r="E184" s="3">
         <v>12000</v>
       </c>
-      <c r="F184" s="6">
-        <v>638.80986670621314</v>
+      <c r="F184" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5006,7 +4941,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="C185" s="4">
         <v>282</v>
@@ -5017,8 +4952,8 @@
       <c r="E185" s="3">
         <v>282000</v>
       </c>
-      <c r="F185" s="6">
-        <v>223.91459408256924</v>
+      <c r="F185" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5026,7 +4961,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="C186" s="4">
         <v>269</v>
@@ -5037,8 +4972,8 @@
       <c r="E186" s="3">
         <v>269000</v>
       </c>
-      <c r="F186" s="6">
-        <v>905.71329767623683</v>
+      <c r="F186" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5046,7 +4981,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="C187" s="4">
         <v>453</v>
@@ -5057,8 +4992,8 @@
       <c r="E187" s="3">
         <v>453000</v>
       </c>
-      <c r="F187" s="6">
-        <v>321.44323141413042</v>
+      <c r="F187" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5066,7 +5001,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="C188" s="4">
         <v>237</v>
@@ -5077,8 +5012,8 @@
       <c r="E188" s="3">
         <v>237000</v>
       </c>
-      <c r="F188" s="6">
-        <v>380.18699988062144</v>
+      <c r="F188" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5086,7 +5021,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="C189" s="4">
         <v>122</v>
@@ -5097,8 +5032,8 @@
       <c r="E189" s="3">
         <v>122000</v>
       </c>
-      <c r="F189" s="6">
-        <v>504.5991947750299</v>
+      <c r="F189" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5106,7 +5041,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="C190" s="4">
         <v>296</v>
@@ -5117,28 +5052,22 @@
       <c r="E190" s="3">
         <v>296000</v>
       </c>
-      <c r="F190" s="6">
-        <v>548.57316332723713</v>
+      <c r="F190" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C191" s="11">
-        <v>0</v>
-      </c>
-      <c r="D191" s="3">
-        <v>0</v>
-      </c>
-      <c r="E191" s="12">
-        <v>0</v>
-      </c>
-      <c r="F191" s="6">
-        <v>0</v>
+      <c r="B191" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C191" s="10"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5146,7 +5075,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="C192" s="4">
         <v>5</v>
@@ -5157,7 +5086,7 @@
       <c r="E192" s="3">
         <v>5000</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F192" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5165,20 +5094,14 @@
       <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C193" s="11">
-        <v>0</v>
-      </c>
-      <c r="D193" s="3">
-        <v>8.0775564128998667E-4</v>
-      </c>
-      <c r="E193" s="12">
-        <v>0</v>
-      </c>
-      <c r="F193" s="6">
-        <v>8.0775564128998667E-4</v>
+      <c r="B193" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C193" s="10"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5186,7 +5109,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="C194" s="4">
         <v>67</v>
@@ -5197,8 +5120,8 @@
       <c r="E194" s="3">
         <v>67000</v>
       </c>
-      <c r="F194" s="6">
-        <v>596.99000000000524</v>
+      <c r="F194" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5206,7 +5129,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="C195" s="4">
         <v>28</v>
@@ -5217,8 +5140,8 @@
       <c r="E195" s="3">
         <v>28000</v>
       </c>
-      <c r="F195" s="6">
-        <v>204.843916243899</v>
+      <c r="F195" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5226,7 +5149,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="C196" s="4">
         <v>32</v>
@@ -5237,8 +5160,8 @@
       <c r="E196" s="3">
         <v>32000</v>
       </c>
-      <c r="F196" s="6">
-        <v>64.334281957359053</v>
+      <c r="F196" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5246,7 +5169,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="C197" s="4">
         <v>384</v>
@@ -5257,8 +5180,8 @@
       <c r="E197" s="3">
         <v>384000</v>
       </c>
-      <c r="F197" s="6">
-        <v>793.12453564547468</v>
+      <c r="F197" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5266,7 +5189,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="C198" s="4">
         <v>92</v>
@@ -5277,8 +5200,8 @@
       <c r="E198" s="3">
         <v>92000</v>
       </c>
-      <c r="F198" s="6">
-        <v>210.75646865859744</v>
+      <c r="F198" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5286,7 +5209,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="C199" s="4">
         <v>87</v>
@@ -5297,8 +5220,8 @@
       <c r="E199" s="3">
         <v>87000</v>
       </c>
-      <c r="F199" s="6">
-        <v>879.51597731468792</v>
+      <c r="F199" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5306,7 +5229,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="C200" s="4">
         <v>22</v>
@@ -5317,8 +5240,8 @@
       <c r="E200" s="3">
         <v>22000</v>
       </c>
-      <c r="F200" s="6">
-        <v>56.806068801586662</v>
+      <c r="F200" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5326,7 +5249,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="C201" s="4">
         <v>190</v>
@@ -5337,8 +5260,8 @@
       <c r="E201" s="3">
         <v>190000</v>
       </c>
-      <c r="F201" s="6">
-        <v>761.27950258960482</v>
+      <c r="F201" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5346,7 +5269,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="C202" s="4">
         <v>184</v>
@@ -5357,8 +5280,8 @@
       <c r="E202" s="3">
         <v>184000</v>
       </c>
-      <c r="F202" s="6">
-        <v>274.84604472570936</v>
+      <c r="F202" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5366,7 +5289,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C203" s="4">
         <v>52</v>
@@ -5377,48 +5300,42 @@
       <c r="E203" s="3">
         <v>52000</v>
       </c>
-      <c r="F203" s="6">
-        <v>311.40000000000146</v>
+      <c r="F203" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="4">
         <v>203</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C204" s="8">
+      <c r="B204" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C204" s="7">
         <v>132</v>
       </c>
       <c r="D204" s="3">
         <v>132701.32325336646</v>
       </c>
-      <c r="E204" s="9">
+      <c r="E204" s="8">
         <v>132000</v>
       </c>
-      <c r="F204" s="6">
-        <v>701.3232533664559</v>
+      <c r="F204" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C205" s="11">
-        <v>0</v>
-      </c>
-      <c r="D205" s="3">
-        <v>-3.1753512084833346E-3</v>
-      </c>
-      <c r="E205" s="12">
-        <v>0</v>
-      </c>
-      <c r="F205" s="6">
-        <v>-3.1753512084833346E-3</v>
+      <c r="B205" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5426,7 +5343,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C206" s="4">
         <v>14</v>
@@ -5437,8 +5354,8 @@
       <c r="E206" s="3">
         <v>14000</v>
       </c>
-      <c r="F206" s="6">
-        <v>184.3700000000008</v>
+      <c r="F206" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5446,7 +5363,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="C207" s="4">
         <v>45</v>
@@ -5457,28 +5374,28 @@
       <c r="E207" s="3">
         <v>45000</v>
       </c>
-      <c r="F207" s="6">
-        <v>173.81162645293807</v>
+      <c r="F207" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="4">
         <v>207</v>
       </c>
-      <c r="B208" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C208" s="8">
+      <c r="B208" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C208" s="7">
         <v>54</v>
       </c>
       <c r="D208" s="3">
         <v>54078.006589446959</v>
       </c>
-      <c r="E208" s="9">
+      <c r="E208" s="8">
         <v>54000</v>
       </c>
-      <c r="F208" s="6">
-        <v>78.006589446958969</v>
+      <c r="F208" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5486,7 +5403,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="C209" s="4">
         <v>179</v>
@@ -5497,8 +5414,8 @@
       <c r="E209" s="3">
         <v>179000</v>
       </c>
-      <c r="F209" s="6">
-        <v>610.34692929050652</v>
+      <c r="F209" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5506,7 +5423,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C210" s="4">
         <v>304</v>
@@ -5517,8 +5434,8 @@
       <c r="E210" s="3">
         <v>304000</v>
       </c>
-      <c r="F210" s="6">
-        <v>180.73199399450095</v>
+      <c r="F210" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5526,7 +5443,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C211" s="4">
         <v>65</v>
@@ -5537,8 +5454,8 @@
       <c r="E211" s="3">
         <v>65000</v>
       </c>
-      <c r="F211" s="6">
-        <v>435.91000000000349</v>
+      <c r="F211" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5546,7 +5463,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C212" s="4">
         <v>133</v>
@@ -5557,8 +5474,8 @@
       <c r="E212" s="3">
         <v>133000</v>
       </c>
-      <c r="F212" s="6">
-        <v>125.56030028284295</v>
+      <c r="F212" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5566,7 +5483,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C213" s="4">
         <v>81</v>
@@ -5577,8 +5494,8 @@
       <c r="E213" s="3">
         <v>81000</v>
       </c>
-      <c r="F213" s="6">
-        <v>284.48675162950531</v>
+      <c r="F213" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5586,7 +5503,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C214" s="4">
         <v>34</v>
@@ -5597,8 +5514,8 @@
       <c r="E214" s="3">
         <v>34000</v>
       </c>
-      <c r="F214" s="6">
-        <v>643.86299670962035</v>
+      <c r="F214" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5606,7 +5523,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C215" s="4">
         <v>146</v>
@@ -5617,8 +5534,8 @@
       <c r="E215" s="3">
         <v>146000</v>
       </c>
-      <c r="F215" s="6">
-        <v>85.110183308803244</v>
+      <c r="F215" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5626,7 +5543,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C216" s="4">
         <v>3</v>
@@ -5637,48 +5554,42 @@
       <c r="E216" s="3">
         <v>3000</v>
       </c>
-      <c r="F216" s="6">
-        <v>752.32991162718281</v>
+      <c r="F216" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="4">
         <v>216</v>
       </c>
-      <c r="B217" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C217" s="11">
-        <v>0</v>
-      </c>
-      <c r="D217" s="3">
-        <v>-4.06239292351529E-3</v>
-      </c>
-      <c r="E217" s="12">
-        <v>0</v>
-      </c>
-      <c r="F217" s="6">
-        <v>-4.06239292351529E-3</v>
+      <c r="B217" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="4">
         <v>217</v>
       </c>
-      <c r="B218" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C218" s="8">
+      <c r="B218" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C218" s="7">
         <v>60</v>
       </c>
       <c r="D218" s="3">
         <v>60958.6940148535</v>
       </c>
-      <c r="E218" s="9">
+      <c r="E218" s="8">
         <v>60000</v>
       </c>
-      <c r="F218" s="6">
-        <v>958.69401485349954</v>
+      <c r="F218" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5686,7 +5597,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="C219" s="4">
         <v>596</v>
@@ -5697,8 +5608,8 @@
       <c r="E219" s="3">
         <v>596000</v>
       </c>
-      <c r="F219" s="6">
-        <v>254.76067853567656</v>
+      <c r="F219" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5706,7 +5617,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="C220" s="4">
         <v>70</v>
@@ -5717,8 +5628,8 @@
       <c r="E220" s="3">
         <v>70000</v>
       </c>
-      <c r="F220" s="6">
-        <v>481.93081036220246</v>
+      <c r="F220" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5726,19 +5637,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C221" s="4">
-        <v>0</v>
-      </c>
-      <c r="D221" s="3">
-        <v>2.6600440469337627E-3</v>
-      </c>
-      <c r="E221" s="3">
-        <v>0</v>
-      </c>
-      <c r="F221" s="6">
-        <v>2.6600440469337627E-3</v>
+        <v>176</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5746,7 +5651,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="C222" s="4">
         <v>25</v>
@@ -5757,8 +5662,8 @@
       <c r="E222" s="3">
         <v>25000</v>
       </c>
-      <c r="F222" s="6">
-        <v>66.639999999999418</v>
+      <c r="F222" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5766,7 +5671,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C223" s="4">
         <v>21</v>
@@ -5777,8 +5682,8 @@
       <c r="E223" s="3">
         <v>21000</v>
       </c>
-      <c r="F223" s="6">
-        <v>398.90000000000146</v>
+      <c r="F223" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5786,7 +5691,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C224" s="4">
         <v>78</v>
@@ -5797,28 +5702,28 @@
       <c r="E224" s="3">
         <v>78000</v>
       </c>
-      <c r="F224" s="6">
-        <v>167.7425089074095</v>
+      <c r="F224" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C225" s="8">
+      <c r="B225" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C225" s="7">
         <v>10</v>
       </c>
       <c r="D225" s="3">
         <v>10455.25</v>
       </c>
-      <c r="E225" s="9">
+      <c r="E225" s="8">
         <v>10000</v>
       </c>
-      <c r="F225" s="6">
-        <v>455.25</v>
+      <c r="F225" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5826,7 +5731,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C226" s="4">
         <v>18</v>
@@ -5837,8 +5742,8 @@
       <c r="E226" s="3">
         <v>18000</v>
       </c>
-      <c r="F226" s="6">
-        <v>652.59000000000015</v>
+      <c r="F226" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5846,7 +5751,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C227" s="4">
         <v>67</v>
@@ -5857,8 +5762,8 @@
       <c r="E227" s="3">
         <v>67000</v>
       </c>
-      <c r="F227" s="6">
-        <v>204.36000000000058</v>
+      <c r="F227" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5866,7 +5771,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="C228" s="4">
         <v>74</v>
@@ -5877,8 +5782,8 @@
       <c r="E228" s="3">
         <v>74000</v>
       </c>
-      <c r="F228" s="6">
-        <v>121.47000000000116</v>
+      <c r="F228" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5886,7 +5791,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C229" s="4">
         <v>10</v>
@@ -5897,7 +5802,7 @@
       <c r="E229" s="3">
         <v>10000</v>
       </c>
-      <c r="F229" s="6">
+      <c r="F229" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5906,7 +5811,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="C230" s="4">
         <v>29</v>
@@ -5917,8 +5822,8 @@
       <c r="E230" s="3">
         <v>29000</v>
       </c>
-      <c r="F230" s="6">
-        <v>663.04188700918166</v>
+      <c r="F230" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5926,7 +5831,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="C231" s="4">
         <v>106</v>
@@ -5937,8 +5842,8 @@
       <c r="E231" s="3">
         <v>106000</v>
       </c>
-      <c r="F231" s="6">
-        <v>158.66169417397759</v>
+      <c r="F231" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5946,7 +5851,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C232" s="4">
         <v>62</v>
@@ -5957,8 +5862,8 @@
       <c r="E232" s="3">
         <v>62000</v>
       </c>
-      <c r="F232" s="6">
-        <v>594.5399999999936</v>
+      <c r="F232" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5966,7 +5871,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="C233" s="4">
         <v>13</v>
@@ -5977,8 +5882,8 @@
       <c r="E233" s="3">
         <v>13000</v>
       </c>
-      <c r="F233" s="6">
-        <v>801.14999999999964</v>
+      <c r="F233" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5986,7 +5891,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C234" s="4">
         <v>13</v>
@@ -5997,8 +5902,8 @@
       <c r="E234" s="3">
         <v>13000</v>
       </c>
-      <c r="F234" s="6">
-        <v>770.76797628057466</v>
+      <c r="F234" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6006,7 +5911,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C235" s="4">
         <v>5</v>
@@ -6017,7 +5922,7 @@
       <c r="E235" s="3">
         <v>5000</v>
       </c>
-      <c r="F235" s="6">
+      <c r="F235" s="15">
         <v>0</v>
       </c>
     </row>
@@ -6026,7 +5931,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="C236" s="4">
         <v>85</v>
@@ -6037,28 +5942,22 @@
       <c r="E236" s="3">
         <v>85000</v>
       </c>
-      <c r="F236" s="6">
-        <v>67.490967875666684</v>
+      <c r="F236" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="4">
         <v>236</v>
       </c>
-      <c r="B237" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C237" s="11">
-        <v>0</v>
-      </c>
-      <c r="D237" s="3">
-        <v>-1.9672797934617847E-3</v>
-      </c>
-      <c r="E237" s="12">
-        <v>0</v>
-      </c>
-      <c r="F237" s="6">
-        <v>-1.9672797934617847E-3</v>
+      <c r="B237" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C237" s="10"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6066,7 +5965,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="C238" s="4">
         <v>33</v>
@@ -6077,28 +5976,28 @@
       <c r="E238" s="3">
         <v>33000</v>
       </c>
-      <c r="F238" s="6">
-        <v>566.68191168476915</v>
+      <c r="F238" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="4">
         <v>238</v>
       </c>
-      <c r="B239" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C239" s="8">
+      <c r="B239" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C239" s="7">
         <v>62</v>
       </c>
       <c r="D239" s="3">
         <v>62890.158029261169</v>
       </c>
-      <c r="E239" s="9">
+      <c r="E239" s="8">
         <v>62000</v>
       </c>
-      <c r="F239" s="6">
-        <v>890.15802926116885</v>
+      <c r="F239" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6106,7 +6005,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="C240" s="4">
         <v>112</v>
@@ -6117,8 +6016,8 @@
       <c r="E240" s="3">
         <v>112000</v>
       </c>
-      <c r="F240" s="6">
-        <v>333.77709456012235</v>
+      <c r="F240" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6126,7 +6025,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="C241" s="4">
         <v>463</v>
@@ -6137,8 +6036,8 @@
       <c r="E241" s="3">
         <v>463000</v>
       </c>
-      <c r="F241" s="6">
-        <v>664.38517112133559</v>
+      <c r="F241" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6146,7 +6045,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="C242" s="4">
         <v>26</v>
@@ -6157,8 +6056,8 @@
       <c r="E242" s="3">
         <v>26000</v>
       </c>
-      <c r="F242" s="6">
-        <v>568.61000000000058</v>
+      <c r="F242" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6166,7 +6065,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="C243" s="4">
         <v>70</v>
@@ -6177,8 +6076,8 @@
       <c r="E243" s="3">
         <v>70000</v>
       </c>
-      <c r="F243" s="6">
-        <v>739.78203045968257</v>
+      <c r="F243" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6186,7 +6085,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="C244" s="4">
         <v>245</v>
@@ -6197,8 +6096,8 @@
       <c r="E244" s="3">
         <v>245000</v>
       </c>
-      <c r="F244" s="6">
-        <v>541.92757819642429</v>
+      <c r="F244" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6206,7 +6105,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="C245" s="4">
         <v>58</v>
@@ -6217,8 +6116,8 @@
       <c r="E245" s="3">
         <v>58000</v>
       </c>
-      <c r="F245" s="6">
-        <v>197.31999999999971</v>
+      <c r="F245" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6226,7 +6125,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="C246" s="4">
         <v>223</v>
@@ -6237,8 +6136,8 @@
       <c r="E246" s="3">
         <v>223000</v>
       </c>
-      <c r="F246" s="6">
-        <v>21.696140703570563</v>
+      <c r="F246" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6246,7 +6145,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="C247" s="4">
         <v>285</v>
@@ -6257,8 +6156,8 @@
       <c r="E247" s="3">
         <v>285000</v>
       </c>
-      <c r="F247" s="6">
-        <v>133.38894974172581</v>
+      <c r="F247" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6266,7 +6165,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C248" s="4">
         <v>10</v>
@@ -6277,7 +6176,7 @@
       <c r="E248" s="3">
         <v>10000</v>
       </c>
-      <c r="F248" s="6">
+      <c r="F248" s="15">
         <v>0</v>
       </c>
     </row>
@@ -6285,40 +6184,28 @@
       <c r="A249" s="4">
         <v>248</v>
       </c>
-      <c r="B249" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C249" s="11">
-        <v>0</v>
-      </c>
-      <c r="D249" s="3">
-        <v>6.3599382701795548E-4</v>
-      </c>
-      <c r="E249" s="12">
-        <v>0</v>
-      </c>
-      <c r="F249" s="6">
-        <v>6.3599382701795548E-4</v>
+      <c r="B249" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C249" s="10"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="4">
         <v>249</v>
       </c>
-      <c r="B250" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C250" s="11">
-        <v>0</v>
-      </c>
-      <c r="D250" s="3">
-        <v>-1.5968545922078192E-3</v>
-      </c>
-      <c r="E250" s="12">
-        <v>0</v>
-      </c>
-      <c r="F250" s="6">
-        <v>-1.5968545922078192E-3</v>
+      <c r="B250" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C250" s="10"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6326,7 +6213,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="C251" s="4">
         <v>143</v>
@@ -6337,11 +6224,14 @@
       <c r="E251" s="3">
         <v>143000</v>
       </c>
-      <c r="F251" s="6">
-        <v>190.91251254620147</v>
+      <c r="F251" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6478,6 +6368,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="U1:U2"/>
@@ -6485,13 +6382,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMG-PIAPS/bin/Debug/Membership.xlsx
+++ b/MMG-PIAPS/bin/Debug/Membership.xlsx
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6368,6 +6368,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:A2"/>
@@ -6375,13 +6382,6 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
